--- a/employee_personal_data.xlsx
+++ b/employee_personal_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vchanna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vchanna\Desktop\AISHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,39 +26,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="416">
   <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Team Name</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>E-mail</t>
   </si>
   <si>
-    <t>Manager Name</t>
-  </si>
-  <si>
-    <t>Manager Email</t>
-  </si>
-  <si>
-    <t>Manager Employee ID</t>
-  </si>
-  <si>
-    <t>Manager Phone Number</t>
-  </si>
-  <si>
     <t>13th Floor</t>
   </si>
   <si>
@@ -1272,6 +1251,27 @@
   </si>
   <si>
     <t>ramu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Employee_ID</t>
+  </si>
+  <si>
+    <t>Team_Name</t>
+  </si>
+  <si>
+    <t>Mgr_Name</t>
+  </si>
+  <si>
+    <t>Mgr_Email</t>
+  </si>
+  <si>
+    <t>Mgr_Empl_ID</t>
+  </si>
+  <si>
+    <t>Mgr_ Mob_Num</t>
+  </si>
+  <si>
+    <t>Mob_Num</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2112,37 +2114,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>411</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>412</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2150,28 +2152,28 @@
         <v>3605</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2">
         <v>919884455101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J2">
         <v>3284</v>
@@ -2185,28 +2187,28 @@
         <v>3001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <v>919884455102</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J3">
         <v>2300</v>
@@ -2220,28 +2222,28 @@
         <v>3002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>919884455103</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J4">
         <v>2301</v>
@@ -2255,28 +2257,28 @@
         <v>3003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
         <v>919884455104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J5" s="5">
         <v>2302</v>
@@ -2290,28 +2292,28 @@
         <v>3004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
         <v>919884455105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J6" s="5">
         <v>2303</v>
@@ -2325,28 +2327,28 @@
         <v>3005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <v>919884455106</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J7" s="5">
         <v>2304</v>
@@ -2360,28 +2362,28 @@
         <v>3006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <v>919884455107</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J8" s="5">
         <v>2305</v>
@@ -2395,28 +2397,28 @@
         <v>3007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>919884455108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J9" s="5">
         <v>2306</v>
@@ -2430,28 +2432,28 @@
         <v>3008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
         <v>919884455109</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J10" s="5">
         <v>2307</v>
@@ -2465,28 +2467,28 @@
         <v>3009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
         <v>919884455110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J11" s="5">
         <v>2308</v>
@@ -2500,28 +2502,28 @@
         <v>3010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <v>919884455111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J12" s="5">
         <v>2309</v>
@@ -2535,28 +2537,28 @@
         <v>3011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
         <v>919884455112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="J13" s="5">
         <v>2310</v>
@@ -2570,28 +2572,28 @@
         <v>3012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
         <v>919884455113</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J14" s="5">
         <v>2311</v>
@@ -2605,28 +2607,28 @@
         <v>3013</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
         <v>919884455114</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J15" s="5">
         <v>2312</v>
@@ -2640,28 +2642,28 @@
         <v>3014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
         <v>919884455115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J16" s="5">
         <v>2313</v>
@@ -2675,28 +2677,28 @@
         <v>3015</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
         <v>919884455116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="J17" s="5">
         <v>2314</v>
@@ -2710,28 +2712,28 @@
         <v>3016</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
         <v>919884455117</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J18" s="5">
         <v>2315</v>
@@ -2745,28 +2747,28 @@
         <v>3017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2">
         <v>919884455118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J19" s="5">
         <v>2316</v>
@@ -2780,28 +2782,28 @@
         <v>3018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2">
         <v>919884455119</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J20" s="5">
         <v>2317</v>
@@ -2815,28 +2817,28 @@
         <v>3019</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>919884455120</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J21" s="5">
         <v>2318</v>
@@ -2850,28 +2852,28 @@
         <v>3020</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>919884455121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J22" s="5">
         <v>2319</v>
@@ -2885,28 +2887,28 @@
         <v>3021</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
         <v>919884455122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J23" s="5">
         <v>2320</v>
@@ -2920,28 +2922,28 @@
         <v>3022</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
         <v>919884455123</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J24" s="5">
         <v>2321</v>
@@ -2955,28 +2957,28 @@
         <v>3023</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>919884455124</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J25" s="5">
         <v>2322</v>
@@ -2990,28 +2992,28 @@
         <v>3024</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
         <v>919884455125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J26" s="5">
         <v>2323</v>
@@ -3025,28 +3027,28 @@
         <v>3025</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2">
         <v>919884455126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J27" s="5">
         <v>2324</v>
@@ -3060,28 +3062,28 @@
         <v>3026</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
         <v>919884455127</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J28" s="5">
         <v>2325</v>
@@ -3095,28 +3097,28 @@
         <v>3027</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
         <v>919884455128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J29" s="5">
         <v>2326</v>
@@ -3130,28 +3132,28 @@
         <v>3028</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2">
         <v>919884455129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J30" s="5">
         <v>2327</v>
@@ -3165,28 +3167,28 @@
         <v>3029</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
         <v>919884455130</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J31" s="5">
         <v>2328</v>
@@ -3200,28 +3202,28 @@
         <v>3030</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2">
         <v>919884455131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="J32" s="5">
         <v>2329</v>
@@ -3235,28 +3237,28 @@
         <v>3031</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2">
         <v>919884455132</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J33" s="5">
         <v>2330</v>
@@ -3270,28 +3272,28 @@
         <v>3032</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
         <v>919884455133</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J34" s="5">
         <v>2331</v>
@@ -3305,28 +3307,28 @@
         <v>3033</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2">
         <v>919884455134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J35" s="5">
         <v>2332</v>
@@ -3340,28 +3342,28 @@
         <v>3034</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F36" s="2">
         <v>919884455135</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J36" s="5">
         <v>2333</v>
@@ -3375,28 +3377,28 @@
         <v>3035</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2">
         <v>919884455136</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="J37" s="5">
         <v>2334</v>
@@ -3410,28 +3412,28 @@
         <v>3036</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F38" s="2">
         <v>919884455137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J38" s="5">
         <v>2335</v>
@@ -3445,28 +3447,28 @@
         <v>3037</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2">
         <v>919884455138</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J39" s="5">
         <v>2336</v>
@@ -3480,28 +3482,28 @@
         <v>3038</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2">
         <v>919884455139</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="J40" s="5">
         <v>2337</v>
@@ -3515,28 +3517,28 @@
         <v>3039</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2">
         <v>919884455140</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J41" s="5">
         <v>2338</v>
@@ -3550,28 +3552,28 @@
         <v>3040</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2">
         <v>919884455141</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J42" s="5">
         <v>2339</v>
@@ -3585,28 +3587,28 @@
         <v>3041</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F43" s="2">
         <v>919884455142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J43" s="5">
         <v>2340</v>
@@ -3620,28 +3622,28 @@
         <v>3042</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2">
         <v>919884455143</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="J44" s="5">
         <v>2341</v>
@@ -3655,28 +3657,28 @@
         <v>3043</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F45" s="2">
         <v>919884455144</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J45" s="5">
         <v>2342</v>
@@ -3690,28 +3692,28 @@
         <v>3044</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2">
         <v>919884455145</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J46" s="5">
         <v>2343</v>
@@ -3725,28 +3727,28 @@
         <v>3045</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2">
         <v>919884455146</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J47" s="5">
         <v>2344</v>
@@ -3760,28 +3762,28 @@
         <v>3046</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
         <v>919884455147</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J48" s="5">
         <v>2345</v>
@@ -3795,28 +3797,28 @@
         <v>3047</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2">
         <v>919884455148</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J49" s="5">
         <v>2346</v>
@@ -3830,28 +3832,28 @@
         <v>3048</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2">
         <v>919884455149</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J50" s="5">
         <v>2347</v>
@@ -3865,28 +3867,28 @@
         <v>3049</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F51" s="2">
         <v>919884455150</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J51" s="5">
         <v>2348</v>
@@ -3900,28 +3902,28 @@
         <v>3050</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F52" s="2">
         <v>919884455151</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J52" s="5">
         <v>2349</v>
@@ -3935,28 +3937,28 @@
         <v>3051</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F53" s="2">
         <v>919884455152</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J53" s="5">
         <v>2350</v>
@@ -3970,28 +3972,28 @@
         <v>3052</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F54" s="2">
         <v>919884455153</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J54" s="5">
         <v>2351</v>
@@ -4005,28 +4007,28 @@
         <v>3053</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2">
         <v>919884455154</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J55" s="5">
         <v>2352</v>
@@ -4040,28 +4042,28 @@
         <v>3054</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2">
         <v>919884455155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J56" s="5">
         <v>2353</v>
@@ -4075,28 +4077,28 @@
         <v>3055</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F57" s="2">
         <v>919884455156</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J57" s="5">
         <v>2354</v>
@@ -4110,28 +4112,28 @@
         <v>3056</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F58" s="2">
         <v>919884455157</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J58" s="5">
         <v>2355</v>
@@ -4145,28 +4147,28 @@
         <v>3057</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2">
         <v>919884455158</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J59" s="5">
         <v>2356</v>
@@ -4180,28 +4182,28 @@
         <v>3058</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F60" s="2">
         <v>919884455159</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J60" s="5">
         <v>2357</v>
@@ -4215,28 +4217,28 @@
         <v>3059</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F61" s="2">
         <v>919884455160</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J61" s="5">
         <v>2358</v>
@@ -4250,28 +4252,28 @@
         <v>3060</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2">
         <v>919884455161</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J62" s="5">
         <v>2359</v>
@@ -4285,28 +4287,28 @@
         <v>3061</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F63" s="2">
         <v>919884455162</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J63" s="5">
         <v>2360</v>
@@ -4320,28 +4322,28 @@
         <v>3062</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F64" s="2">
         <v>919884455163</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J64" s="5">
         <v>2361</v>
@@ -4355,28 +4357,28 @@
         <v>3063</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F65" s="2">
         <v>919884455164</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J65" s="5">
         <v>2362</v>
@@ -4390,28 +4392,28 @@
         <v>3064</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F66" s="2">
         <v>919884455165</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J66" s="5">
         <v>2363</v>
@@ -4425,28 +4427,28 @@
         <v>3065</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F67" s="2">
         <v>919884455166</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J67" s="5">
         <v>2364</v>
@@ -4460,28 +4462,28 @@
         <v>3066</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2">
         <v>919884455167</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J68" s="5">
         <v>2365</v>
@@ -4495,28 +4497,28 @@
         <v>3067</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2">
         <v>919884455168</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J69" s="5">
         <v>2366</v>
@@ -4530,28 +4532,28 @@
         <v>3068</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F70" s="2">
         <v>919884455169</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J70" s="5">
         <v>2367</v>
@@ -4565,28 +4567,28 @@
         <v>3069</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F71" s="2">
         <v>919884455170</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J71" s="5">
         <v>2368</v>
@@ -4600,28 +4602,28 @@
         <v>3070</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2">
         <v>919884455171</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J72" s="5">
         <v>2369</v>
@@ -4635,28 +4637,28 @@
         <v>3071</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F73" s="2">
         <v>919884455172</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J73" s="5">
         <v>2370</v>
@@ -4670,28 +4672,28 @@
         <v>3072</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2">
         <v>919884455173</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J74" s="5">
         <v>2371</v>
@@ -4705,28 +4707,28 @@
         <v>3073</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2">
         <v>919884455174</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J75" s="5">
         <v>2372</v>
@@ -4740,28 +4742,28 @@
         <v>3074</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2">
         <v>919884455175</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J76" s="5">
         <v>2373</v>
@@ -4775,28 +4777,28 @@
         <v>3075</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F77" s="2">
         <v>919884455176</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J77" s="5">
         <v>2374</v>
@@ -4810,28 +4812,28 @@
         <v>3076</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F78" s="2">
         <v>919884455177</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J78" s="5">
         <v>2375</v>
@@ -4845,28 +4847,28 @@
         <v>3077</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F79" s="2">
         <v>919884455178</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J79" s="5">
         <v>2376</v>
@@ -4880,28 +4882,28 @@
         <v>3078</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F80" s="2">
         <v>919884455179</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J80" s="5">
         <v>2377</v>
@@ -4915,28 +4917,28 @@
         <v>3079</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F81" s="2">
         <v>919884455180</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="J81" s="5">
         <v>2378</v>
@@ -4950,28 +4952,28 @@
         <v>3080</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2">
         <v>919884455181</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J82" s="5">
         <v>2379</v>
@@ -4985,28 +4987,28 @@
         <v>3081</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F83" s="2">
         <v>919884455182</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J83" s="5">
         <v>2380</v>
@@ -5020,28 +5022,28 @@
         <v>3082</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F84" s="2">
         <v>919884455183</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J84" s="5">
         <v>2381</v>
@@ -5055,28 +5057,28 @@
         <v>3083</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F85" s="2">
         <v>919884455184</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J85" s="5">
         <v>2382</v>
@@ -5090,28 +5092,28 @@
         <v>3084</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2">
         <v>919884455185</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J86" s="5">
         <v>2383</v>
@@ -5125,28 +5127,28 @@
         <v>3085</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2">
         <v>919884455186</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J87" s="5">
         <v>2384</v>
@@ -5160,28 +5162,28 @@
         <v>3086</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2">
         <v>919884455187</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J88" s="5">
         <v>2385</v>
@@ -5195,28 +5197,28 @@
         <v>3087</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F89" s="2">
         <v>919884455188</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J89" s="5">
         <v>2386</v>
@@ -5230,28 +5232,28 @@
         <v>3088</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F90" s="2">
         <v>919884455189</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J90" s="5">
         <v>2387</v>
@@ -5265,28 +5267,28 @@
         <v>3089</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F91" s="2">
         <v>919884455190</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J91" s="5">
         <v>2388</v>
@@ -5300,28 +5302,28 @@
         <v>3090</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F92" s="2">
         <v>919884455191</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J92" s="5">
         <v>2389</v>
@@ -5335,28 +5337,28 @@
         <v>3091</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F93" s="2">
         <v>919884455192</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J93" s="5">
         <v>2390</v>
@@ -5370,28 +5372,28 @@
         <v>3092</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F94" s="2">
         <v>919884455193</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J94" s="5">
         <v>2391</v>
@@ -5405,28 +5407,28 @@
         <v>3093</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F95" s="2">
         <v>919884455194</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="J95" s="5">
         <v>2392</v>
@@ -5440,28 +5442,28 @@
         <v>3094</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F96" s="2">
         <v>919884455195</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J96" s="5">
         <v>2393</v>
@@ -5475,28 +5477,28 @@
         <v>3095</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F97" s="2">
         <v>919884455196</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="J97" s="5">
         <v>2394</v>
@@ -5510,28 +5512,28 @@
         <v>3096</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2">
         <v>919884455197</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="J98" s="5">
         <v>2395</v>
@@ -5545,28 +5547,28 @@
         <v>3097</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F99" s="2">
         <v>919884455198</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="J99" s="5">
         <v>2396</v>
@@ -5580,28 +5582,28 @@
         <v>3098</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F100" s="2">
         <v>919884455199</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J100" s="5">
         <v>2397</v>
@@ -5615,28 +5617,28 @@
         <v>3099</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F101" s="2">
         <v>919884455200</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J101" s="5">
         <v>2398</v>
@@ -5650,28 +5652,28 @@
         <v>3100</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F102" s="2">
         <v>919884455201</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H102" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J102">
         <v>2399</v>

--- a/employee_personal_data.xlsx
+++ b/employee_personal_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="424">
   <si>
     <t>Name</t>
   </si>
@@ -1272,6 +1272,30 @@
   </si>
   <si>
     <t>Mob_Num</t>
+  </si>
+  <si>
+    <t>Suresh Kumar</t>
+  </si>
+  <si>
+    <t>Sureshkumar.natarajan3031@altimetrik.com</t>
+  </si>
+  <si>
+    <t>Shreeti Saha</t>
+  </si>
+  <si>
+    <t>shritisaha2012@gmail.com</t>
+  </si>
+  <si>
+    <t>HANCOCK2</t>
+  </si>
+  <si>
+    <t>WILCOX2</t>
+  </si>
+  <si>
+    <t>hancock2@yahoo.com</t>
+  </si>
+  <si>
+    <t>wilcox2@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,14 +5706,87 @@
         <v>919884899055</v>
       </c>
     </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>3500</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2">
+        <v>919952955657</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J103" s="5">
+        <v>2400</v>
+      </c>
+      <c r="K103" s="2">
+        <v>919884899056</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>3237</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2">
+        <v>919163252752</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J104" s="5">
+        <v>2401</v>
+      </c>
+      <c r="K104" s="2">
+        <v>919884899057</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G102" r:id="rId2"/>
     <hyperlink ref="I2" r:id="rId3"/>
     <hyperlink ref="I102" r:id="rId4"/>
+    <hyperlink ref="G104" r:id="rId5"/>
+    <hyperlink ref="I103" r:id="rId6"/>
+    <hyperlink ref="I104" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>